--- a/TRACE_ITOG_EXCEL/3060_OpenMP+AVX.xlsx
+++ b/TRACE_ITOG_EXCEL/3060_OpenMP+AVX.xlsx
@@ -9791,7 +9791,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:K32"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
